--- a/052c doc/original_model_version/fcmean_abs.xlsx
+++ b/052c doc/original_model_version/fcmean_abs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\original_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F700C49-ED8A-462F-8A97-29B51F216346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D7AFB0-5E39-4744-B2E8-88AD69CAF655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{744A9CA1-A382-4022-BAD6-A1C271C46509}"/>
+    <workbookView minimized="1" xWindow="29175" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{744A9CA1-A382-4022-BAD6-A1C271C46509}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,37 +101,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -141,11 +112,39 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -941,8 +940,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="618632824"/>
         <c:axId val="618638584"/>
       </c:barChart>
@@ -974,12 +973,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1033,12 +1029,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1077,10 +1070,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1145,18 +1135,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1164,8 +1154,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1186,7 +1176,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1202,7 +1192,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1210,8 +1200,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1245,36 +1235,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1286,30 +1302,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1326,20 +1345,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1354,15 +1371,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1373,17 +1390,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1392,17 +1409,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1411,21 +1427,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1444,17 +1454,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1463,17 +1472,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1482,17 +1491,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1502,8 +1510,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1513,7 +1521,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1521,7 +1529,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1530,10 +1538,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1541,17 +1560,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1561,27 +1580,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1591,8 +1609,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1611,8 +1629,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1624,8 +1642,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1635,14 +1653,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1651,16 +1663,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329564</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1988,1287 +2000,1287 @@
   <dimension ref="A1:A256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3.7854772999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.1411606999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.1607474999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.613509E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.9156630000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.0669E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.5075762000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.1967743E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.930153E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.0573533E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5335523999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.6158252000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.6220139999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.1355279999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.1529259999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.6250814000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.2773531999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.6326505E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7703483999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2.9237450000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2.2506916000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3.8564993999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.7016610000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.8139840000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.4398792999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.9791346999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.2655570000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4.4020819999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.6825899999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3.2433042999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.2615360000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.6838728000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2.2505345E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.8213597000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4.0999985999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2.0097890000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4.1145924000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.0485235999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.7858034E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9.7329524999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.9759623000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.6610002999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3.756311E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.8368452E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2.3232994000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3.2342732999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3.508064E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3.2434542999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9.5094540000000005E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.1055600000000003E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3.5965304999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3.2917176999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4.2684283E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3.3738247999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3.5990202000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3.0909749000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2.5867957E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2.9124314999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3.9602127000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4.1774660000000003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.7843201999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4.3466729999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3.8799844000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3.4733350000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3.7147256000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3.5973290999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5.0297594000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3.1131560000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3.5333307000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3.4728097000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3.6261984999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2.8617182000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4.0293179999999996E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2.8941089000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2.8959168E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3.9597195999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3.9500984999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3.3173002000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3.6898952E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3.1204346999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3.9458439999999996E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3.8520030000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3.3578334999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2.5726652000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3.2464028000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2.6191792000000002E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3.265783E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2.6625064E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3.6904540000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3.3545156E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3.1756625999999999E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2.0660453E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3.6502415E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4.2277039999999997E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.3479032999999998E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3.2162954999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3.9620740000000003E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2.7439439999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4.1759609999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4.1253610000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1.9040869E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1.9641544000000002E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2.0766173999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.9166652999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3.3586394999999998E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3.3217979999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3.9324607000000003E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2.8324439999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2.0880337999999998E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4.3423580000000002E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3.0641520000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2.4706099999999998E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2.3042599999999998E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>9.1742280000000004E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5.6180459999999998E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2.9574211E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3.970917E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4.5035253000000001E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4.4945130000000003E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3.5498824E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2.9867050000000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3.5664523E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2.6204302E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2.8865351E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2.7109387000000002E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2.0528006999999998E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2.8607347E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2.7051029999999999E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2.9574877000000002E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2.9179088000000001E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4.8439599999999996E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.5901419000000001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2.5449102000000001E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3.8180589999999999E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.6577250999999999E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4.1371330000000003E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2.7736969999999999E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5.4382364999999997E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4.1959379999999998E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2.5636218000000001E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2.7175283E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3.9947912999999998E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3.5308618E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2.8651499999999999E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1.4338102000000001E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3.3685688E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.6824208000000001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.5323508000000001E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2.7521619999999998E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3.8427299999999999E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3.9611007000000002E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3.6387582999999999E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2.6132127E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3.1954145999999999E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2.6611690000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2.2317648000000001E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4.0518610000000004E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3.3588985000000001E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4.1641565000000002E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4.1900532999999997E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3.5137024000000002E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3.3741553999999999E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>3.2237142E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4.4153654000000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2.785671E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4.9010310000000001E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4.6204076999999998E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2.6325010000000002E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>3.8186629999999999E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4.5318839999999999E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2.9033558000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4.2472009999999999E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>3.6703757999999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3.9302822999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4.2527965000000003E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3.6334991000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3.7431219000000002E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3.2587015999999999E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2.5982742999999999E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3.6739264999999998E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3.6823282E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3.4015242E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3.633477E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2.4322804999999999E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2.9418766000000002E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2.8348179000000002E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2.2019069999999999E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2.9024965999999998E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3.077036E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4.1223466E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2.5039273000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4.5597125000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3.3014149999999998E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3.3006760999999998E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2.4316974000000002E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2.5116520000000001E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3.2053858000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3.2803264999999998E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1.3714291E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2.7984557999999999E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2.3733266E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3.6694077000000002E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4.0194159999999996E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4.2303517000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4.3711640000000003E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2.9369611000000001E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.906051E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3.4925744000000002E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4.107131E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3.0200909999999999E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2.8240053999999998E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2.8298195000000001E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2.4360419999999998E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2.6438035999999999E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3.6190837000000002E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2.1625485E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4.2911410000000001E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3.620762E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3.7200499999999999E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3.0550954E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>5.2342446999999997E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3.2513118000000001E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2.5450147000000002E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3.2178147000000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2.9834455000000001E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3.0323924000000002E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3.809008E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3.6993505999999999E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3.2667365999999999E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3.4795030000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3.0479152000000001E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3.3918162999999999E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3.5938049999999998E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2.2436928000000001E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3.0805456999999999E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3.4196309999999998E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1.5793020999999999E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3.3438588000000002E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3.2125700000000001E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3.0722013000000002E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4.7512706000000004E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4.1508977000000004E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3.2124779999999999E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3.1268170000000001E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3.7531512999999998E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4.2409314999999996E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3.0396783000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>3.3835141999999999E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3.3008453999999999E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4.1314851999999999E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3.1054964999999999E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3.5702959000000001E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4.4103659999999998E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3.5000572000000001E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>3.1511579999999998E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3.9133659999999997E-3</v>
       </c>
@@ -3278,4 +3290,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF15F3-93A6-481A-9166-49CABFB24018}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>